--- a/pred_ohlcv/54_21/2020-01-14 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 LUNA ohlcv.xlsx
@@ -1172,7 +1172,7 @@
         <v>-20754.9692</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-20754.9692</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-20754.9692</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-20197.3326</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-19846.0767</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-19846.0767</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-20246.0945</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-19278.9408</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-20134.4181</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-20002.5386</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-20280.4438</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-19317.8822</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-18930.863</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-18930.863</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-19282.0919</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-20240.3455</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-20886.01259999999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-20886.01259999999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-23556.3304</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-22034.3681</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-22034.3681</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-20111.5426</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-23695.0172</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-21123.2235</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-22668.6252</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-18299.0812</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-17692.6188</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-20768.1751</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-23279.1077</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-22666.6849</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-20378.7115</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-20378.7115</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-19395.3046</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-19945.3947</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-20203.7696</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-20060.0387</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-21048.085</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-21048.085</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-20905.692</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-20798.3086</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-21834.8688</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-21499.1185</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-21499.1185</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-21849.7851</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-21656.0508</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-22134.5054</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-22114.5054</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-23179.1341</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-23179.1341</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-23179.1341</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-24049.1176</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-24049.1176</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-25930.6303</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-27872.8373</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-28451.1973</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-28963.2861</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-27781.1445</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-28914.3171</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-28914.3171</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-27996.5248</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-27996.5248</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-25998.0807</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-28726.4519</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-28726.4519</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-27765.69910000001</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-26838.94880000001</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-24526.2576</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-23782.30780000001</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-25465.61900000001</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-25301.50900000001</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-27390.113</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-26636.6826</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-26636.6826</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-26491.0426</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-28905.5193</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-28827.9893</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-28608.7915</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-28249.9502</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-28063.2516</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-30789.4315</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-32202.1738</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-31786.0757</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-31654.45570000001</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-31497.19570000001</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-31888.35280000001</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-31885.54280000001</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-33165.38740000001</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-33450.81480000001</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-33239.0148</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-32982.70480000001</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-31942.11300000001</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-30662.88140000001</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-33974.50030000001</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-33222.72860000001</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-33053.93890000001</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-32194.63970000001</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-31793.25460000001</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-33209.21490000001</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-32501.16800000001</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-32179.808</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-32951.61610000001</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-33538.17710000001</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-33477.41710000001</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-33477.41710000001</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-33369.7971</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-33330.7171</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-33254.3471</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-36658.4238</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-38386.6725</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-38118.2091</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-38035.1391</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-38035.1391</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-37372.8106</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-37765.68079999999</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-36955.82969999999</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-37558.4658</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-36957.5513</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-36957.5513</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-37434.058</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-37434.058</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-37080.5672</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-31492.2651</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-31492.2651</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-30988.5491</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-31558.5824</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-31169.0016</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-30850.91279999999</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-30602.122</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-31121.8487</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-33705.9708</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-35176.18139999999</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-35176.18139999999</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-35176.18139999999</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-35134.9414</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-35099.9014</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-37035.16299999999</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-36738.33849999999</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-36671.27849999999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-37079.1626</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-37878.76229999999</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-37987.83719999999</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-37633.52219999999</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-38633.16829999999</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-45055.64569999999</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-44555.8386</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-44555.8386</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-44555.8386</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-45370.874</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-43682.84819999999</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-43868.0209</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-44211.9661</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-44211.9661</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-43874.7523</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-43749.3999</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-43749.3999</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-43897.9237</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-38954.3094</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-38651.2474</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-38817.1242</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-39429.3388</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-39429.3388</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-39299.5407</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-40240.1175</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-39547.2685</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-39547.2685</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-38694.5913</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-38989.7264</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-38438.6721</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-39375.4688</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-39375.4688</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-38879.19089999999</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-39255.1577</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-38831.90029999999</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-39156.59249999999</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-38832.05419999999</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-39178.89629999999</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-39178.89629999999</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-38548.99689999999</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-39229.99089999999</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-38201.52679999999</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-38201.52679999999</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-38055.86039999999</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-38055.86039999999</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-38841.49199999999</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-33542.34889999999</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-33542.34889999999</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-33542.34889999999</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-33628.67889999999</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-33628.67889999999</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-33552.45889999999</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-33552.45889999999</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-33666.33909999999</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-33666.33909999999</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-33103.59649999999</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-33103.59649999999</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-33743.72939999999</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-33743.72939999999</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-33747.72939999999</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-35372.68889999999</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-34440.04769999999</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-34589.81079999998</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-35400.99299999999</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-35400.99299999999</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-34377.80239999999</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-34566.44419999998</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-34566.44419999998</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-34823.95649999999</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-36499.72529999998</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-36499.72529999998</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-36499.72529999998</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-36499.72529999998</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-35526.48509999999</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-34689.28229999999</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-34689.28229999999</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-34689.28229999999</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-34698.42959999999</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-34698.42959999999</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-35207.70369999999</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-31097.07679999999</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-31097.07679999999</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-31097.07679999999</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-32411.07679999999</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-36491.61059999999</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-36491.61059999999</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-49786.29019999999</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-52247.39969999999</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-48633.74909999999</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-51664.21999999999</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-53809.20769999999</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-50978.81989999999</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-52271.00309999999</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-53293.47179999999</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-53293.47179999999</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-60950.4273</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-41886.49420000001</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-41886.49420000001</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-50525.57840000001</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-50921.2023</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-50921.2023</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-50962.8723</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-67572.30470000001</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-75537.59820000001</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-66818.57590000001</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-78888.60750000001</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-78888.60750000001</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-69231.06460000001</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-81084.60300000002</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-81149.06300000002</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-221861.8284</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-513135.76948979</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-513135.76948979</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-503637.0852897899</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-514714.2052897899</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-521878.2408897899</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-510816.5910897899</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-520949.4560897899</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-485808.6175897899</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-427608.9722897898</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-406476.4927897898</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-450777.5670897898</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-459678.3017897898</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-468512.0620897898</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-475781.1811897898</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-468818.2262897898</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-477950.3659897898</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-495305.9284897898</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-489543.8876897898</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-485549.4274897898</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-469249.6663897898</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 LUNA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-20201.425</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-22824.0463</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-21273.6052</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-18289.4067</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-20394.1212</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-23022.75</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-20297.3775</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-21154.824</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-19049.2902</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-20063.6258</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-22232.8169</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-19810.7545</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-21985.4921</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-19242.8851</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-21057.348</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-18282.294</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-20037.0973</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-20037.0973</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-21706.7307</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-20802.6172</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-20754.9692</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-20754.9692</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-20197.3326</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-19846.0767</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-19846.0767</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-20246.0945</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-20134.4181</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-20002.5386</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-20280.4438</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-19317.8822</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-18930.863</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-18930.863</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-19282.0919</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-20240.3455</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-20886.01259999999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-20886.01259999999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-23556.3304</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-22034.3681</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-22034.3681</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-20111.5426</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-23695.0172</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-21123.2235</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-22668.6252</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-18299.0812</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-17692.6188</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-20768.1751</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-23279.1077</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-22666.6849</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-20378.7115</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-20378.7115</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-19395.3046</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-19945.3947</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-20203.7696</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-20060.0387</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-21048.085</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-21048.085</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-20905.692</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-20798.3086</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-21834.8688</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-21499.1185</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-21499.1185</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-21849.7851</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-21656.0508</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-22134.5054</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-22114.5054</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-23179.1341</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-23179.1341</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-23179.1341</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-24049.1176</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-24049.1176</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-25930.6303</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-27872.8373</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-28451.1973</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-28963.2861</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-27781.1445</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-28914.3171</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-28914.3171</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-27996.5248</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-27996.5248</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-25998.0807</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-28726.4519</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-28726.4519</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-27765.69910000001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-26838.94880000001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-24526.2576</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-23782.30780000001</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-25465.61900000001</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-25301.50900000001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-27390.113</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-26636.6826</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-26636.6826</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-26491.0426</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-28905.5193</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-28827.9893</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-28608.7915</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-28249.9502</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-28063.2516</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-30789.4315</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-32202.1738</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-31786.0757</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-31654.45570000001</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-31497.19570000001</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-31888.35280000001</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-31885.54280000001</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-33165.38740000001</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-33450.81480000001</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-33239.0148</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-32982.70480000001</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-31942.11300000001</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-30662.88140000001</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-33974.50030000001</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-33222.72860000001</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-33053.93890000001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-32194.63970000001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-31793.25460000001</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-33209.21490000001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-32501.16800000001</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-32179.808</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-32951.61610000001</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-33538.17710000001</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-33477.41710000001</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-33477.41710000001</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-33369.7971</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-33330.7171</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-33254.3471</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-36658.4238</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-38386.6725</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-38118.2091</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-38035.1391</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-38035.1391</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-37372.8106</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-37765.68079999999</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-36955.82969999999</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-37558.4658</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-36957.5513</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-36957.5513</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-37434.058</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-37434.058</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-37080.5672</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-31492.2651</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-31492.2651</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-30988.5491</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-31558.5824</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-31169.0016</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-30850.91279999999</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-30602.122</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-31121.8487</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-33705.9708</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-35176.18139999999</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-35176.18139999999</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-35176.18139999999</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-35134.9414</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-35099.9014</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-37035.16299999999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-36738.33849999999</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-36671.27849999999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-37079.1626</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-37878.76229999999</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-37987.83719999999</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-37633.52219999999</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-38633.16829999999</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-45055.64569999999</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-44555.8386</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-44555.8386</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-44555.8386</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-44256.5589</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-44399.0223</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-45370.874</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-43682.84819999999</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-43868.0209</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-44211.9661</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-44211.9661</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-43874.7523</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-43749.3999</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-43749.3999</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-43897.9237</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-45538.8062</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-45538.8062</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-45538.8062</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-38954.3094</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-38651.2474</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-38817.1242</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-39429.3388</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-39429.3388</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-39299.5407</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-40240.1175</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-39547.2685</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-39547.2685</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-38694.5913</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-38989.7264</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-38438.6721</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-39375.4688</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-39375.4688</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-38879.19089999999</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-39255.1577</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-38831.90029999999</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-39156.59249999999</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-38832.05419999999</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-39178.89629999999</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-39178.89629999999</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-38548.99689999999</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-39229.99089999999</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-38201.52679999999</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-38201.52679999999</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-38055.86039999999</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-38055.86039999999</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-38841.49199999999</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-33542.34889999999</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-33542.34889999999</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-33542.34889999999</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-33628.67889999999</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-33628.67889999999</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-33552.45889999999</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-33552.45889999999</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-33666.33909999999</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-33666.33909999999</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-33103.59649999999</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-33103.59649999999</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-33743.72939999999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-33743.72939999999</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-33747.72939999999</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-35372.68889999999</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-34440.04769999999</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-34589.81079999998</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-35400.99299999999</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-35400.99299999999</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-34377.80239999999</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-34566.44419999998</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-34566.44419999998</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-34823.95649999999</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-36499.72529999998</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-36499.72529999998</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-36499.72529999998</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-36499.72529999998</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-35526.48509999999</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-34689.28229999999</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-34689.28229999999</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-34689.28229999999</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-34698.42959999999</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-34698.42959999999</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-35207.70369999999</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-31097.07679999999</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-31097.07679999999</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-31097.07679999999</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-32411.07679999999</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-36491.61059999999</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-36491.61059999999</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-49786.29019999999</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-52247.39969999999</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-49934.87939999999</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-54393.63899999999</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-52358.31809999999</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-52358.31809999999</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-50793.67049999999</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-48633.74909999999</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-51664.21999999999</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-53809.20769999999</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-53809.20769999999</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-50978.81989999999</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-52271.00309999999</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-53293.47179999999</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-53293.47179999999</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-60950.4273</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-41886.49420000001</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-41886.49420000001</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-50525.57840000001</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-50921.2023</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-50921.2023</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-50962.8723</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-67572.30470000001</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-75537.59820000001</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-513135.76948979</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-513135.76948979</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-503637.0852897899</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-514714.2052897899</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-521878.2408897899</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-510816.5910897899</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-520949.4560897899</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-520949.4560897899</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-485808.6175897899</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-492767.1330897899</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-484071.6195897899</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-497545.6907897899</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-427608.9722897898</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-406476.4927897898</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-450777.5670897898</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-459678.3017897898</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-468512.0620897898</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-475781.1811897898</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-468818.2262897898</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-477950.3659897898</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-495305.9284897898</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-489543.8876897898</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-485549.4274897898</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-469249.6663897898</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
